--- a/diary/2017-2-23(L).xlsx
+++ b/diary/2017-2-23(L).xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>P</t>
   </si>
@@ -65,6 +65,14 @@
   </si>
   <si>
     <t>雞腿肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健身項目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休息日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -72,7 +80,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -87,6 +95,21 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -111,12 +134,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -422,26 +454,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="3"/>
+      <c r="F1" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -454,36 +494,40 @@
       <c r="D2" s="1">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>30</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>5</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>14.4</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>18</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>8.1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -497,49 +541,49 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>16.899999999999999</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>0</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>10.8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>69</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>0</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>6.82</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>90</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>6.6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -553,24 +597,24 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <f>SUM(B3:B11)</f>
         <v>175.22</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <f>SUM(C3:C11)</f>
         <v>141.9</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <f>SUM(D3:D9)</f>
         <v>63</v>
       </c>
